--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed2/result_data_RandomForest.xlsx
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.99580000000001</v>
+        <v>-21.8692</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.9211</v>
+        <v>-11.7852</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.3189</v>
+        <v>16.26919999999999</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.45469999999997</v>
+        <v>-20.38019999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.25829999999997</v>
+        <v>-20.37769999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,18 +842,18 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.1217</v>
+        <v>-12.691</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.4764</v>
+        <v>16.40829999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.6204</v>
+        <v>-21.70029999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.139700000000004</v>
+        <v>6.118500000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.6954</v>
+        <v>15.72109999999999</v>
       </c>
     </row>
     <row r="31">
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.075300000000003</v>
+        <v>4.9118</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.22909999999999</v>
+        <v>16.36609999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.29670000000002</v>
+        <v>17.14690000000002</v>
       </c>
     </row>
     <row r="34">
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.515000000000004</v>
+        <v>9.613200000000003</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.573400000000001</v>
+        <v>5.027500000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.443299999999999</v>
+        <v>5.231600000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.282700000000001</v>
+        <v>5.131600000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.8991</v>
+        <v>-21.75970000000001</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.214099999999998</v>
+        <v>6.022099999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.5385</v>
+        <v>16.57609999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.917899999999997</v>
+        <v>4.8953</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.09689999999999</v>
+        <v>-21.90300000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>5.320900000000002</v>
+        <v>5.859700000000005</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.50529999999999</v>
+        <v>-12.37319999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.28270000000001</v>
+        <v>-22.29350000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-13.30989999999999</v>
+        <v>-13.34869999999999</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.21320000000001</v>
+        <v>17.15270000000002</v>
       </c>
     </row>
     <row r="66">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.64019999999999</v>
+        <v>-21.59459999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,13 +1624,13 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.68840000000001</v>
+        <v>-11.6604</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.42720000000001</v>
+        <v>17.29890000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.8954</v>
+        <v>9.040100000000004</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.5419</v>
+        <v>16.4776</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.7186</v>
+        <v>-20.65680000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.02079999999999</v>
+        <v>-21.98129999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.6129</v>
+        <v>16.445</v>
       </c>
     </row>
     <row r="84">
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-12.99119999999999</v>
+        <v>-13.3951</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.053299999999994</v>
+        <v>5.171799999999994</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.8497</v>
+        <v>5.561100000000001</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.1633</v>
+        <v>-21.35319999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.2694</v>
+        <v>15.9165</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.6041</v>
+        <v>16.6048</v>
       </c>
     </row>
     <row r="98">
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-11.13029999999999</v>
+        <v>-11.4996</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.70509999999999</v>
+        <v>-12.3223</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.2159</v>
+        <v>-13.1157</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
